--- a/Project1.xlsx
+++ b/Project1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\Spring2023\ECON400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E619F7-D6DC-4BA4-96E6-53209754730B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA50DD-9804-434D-AE38-A214090A6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38303" yWindow="-98" windowWidth="24495" windowHeight="15796" xr2:uid="{07C7A715-FA42-43D0-8BB4-0197F204551F}"/>
+    <workbookView xWindow="24640" yWindow="1850" windowWidth="23220" windowHeight="17130" xr2:uid="{07C7A715-FA42-43D0-8BB4-0197F204551F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -46,12 +46,28 @@
   <si>
     <t>PCE</t>
   </si>
+  <si>
+    <t>p_GDP</t>
+  </si>
+  <si>
+    <t>P_PCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,14 +93,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB3F9F-3060-409A-98C7-26FC40E7C6DC}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +433,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -425,8 +450,16 @@
       <c r="C2">
         <v>646.70000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <f>B2/SUM($B$2:$B$54)*100</f>
+        <v>0.21043026745210569</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2/SUM($C$2:$C$54)*100</f>
+        <v>0.190500990799571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -436,8 +469,16 @@
       <c r="C3">
         <v>699.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D54" si="0">B3/SUM($B$2:$B$54)*100</f>
+        <v>0.2283892840351793</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E54" si="1">C3/SUM($C$2:$C$54)*100</f>
+        <v>0.2061723263655787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -447,8 +488,16 @@
       <c r="C4">
         <v>768.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25077923702412036</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2262917289813367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -458,8 +507,16 @@
       <c r="C5">
         <v>849.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27946268818245734</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25027005069323566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -469,8 +526,16 @@
       <c r="C6">
         <v>930.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30295057231621514</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27401271322369097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -480,8 +545,16 @@
       <c r="C7">
         <v>1030.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33034003319673239</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30355848309719791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -491,8 +564,16 @@
       <c r="C8">
         <v>1147.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36729717976779541</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33808255317870362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -502,8 +583,16 @@
       <c r="C9">
         <v>1274</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40815590308561789</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37528724644913164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -513,8 +602,16 @@
       <c r="C10">
         <v>1422.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46105265716982369</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41897256720926213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -524,8 +621,16 @@
       <c r="C11">
         <v>1585.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5151061601387471</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46701758282610156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -535,8 +640,16 @@
       <c r="C12">
         <v>1750.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56019976072943412</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51571066119191111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -546,8 +659,16 @@
       <c r="C13">
         <v>1934</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62876163954057851</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56970607114020455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1982</v>
       </c>
@@ -557,8 +678,16 @@
       <c r="C14">
         <v>2071.3000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65558252893538715</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61015107815548397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1983</v>
       </c>
@@ -568,8 +697,16 @@
       <c r="C15">
         <v>2281.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71247888933285386</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67209998547750294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1984</v>
       </c>
@@ -579,8 +716,16 @@
       <c r="C16">
         <v>2492.3000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79160835541285923</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73416672239024405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1985</v>
       </c>
@@ -590,8 +735,16 @@
       <c r="C17">
         <v>2712.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85070057809995969</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79912028427567061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -601,8 +754,16 @@
       <c r="C18">
         <v>2886.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8978724055004782</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8502288692512785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1987</v>
       </c>
@@ -612,8 +773,16 @@
       <c r="C19">
         <v>3076.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95190630255610131</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90619792484416317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1988</v>
       </c>
@@ -623,8 +792,16 @@
       <c r="C20">
         <v>3330</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0266440440568398</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98093134275950433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1989</v>
       </c>
@@ -634,8 +811,16 @@
       <c r="C21">
         <v>3576.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1060872047496502</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0536322002348935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -645,8 +830,16 @@
       <c r="C22">
         <v>3809</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1691202160101104</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1220322776489344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -656,8 +849,16 @@
       <c r="C23">
         <v>3943.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2073517469456929</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1616230201314801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1992</v>
       </c>
@@ -667,8 +868,16 @@
       <c r="C24">
         <v>4197.6000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2783643649193746</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2365037250352238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -678,8 +887,16 @@
       <c r="C25">
         <v>4452</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3446911696142851</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3114433447343283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -689,8 +906,16 @@
       <c r="C26">
         <v>4721</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4287221140193651</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3906837444947806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1995</v>
       </c>
@@ -700,8 +925,16 @@
       <c r="C27">
         <v>4962.6000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.497832958402918</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4618528172907856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1996</v>
       </c>
@@ -711,8 +944,16 @@
       <c r="C28">
         <v>5244.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5828049866464127</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5449226787496986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1997</v>
       </c>
@@ -722,8 +963,16 @@
       <c r="C29">
         <v>5536.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6817168192464194</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.630997194772019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1998</v>
       </c>
@@ -733,8 +982,16 @@
       <c r="C30">
         <v>5877.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7768447105794682</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7312701764763239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -744,8 +1001,16 @@
       <c r="C31">
         <v>6283.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8882847217783665</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.851043955445097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -755,8 +1020,16 @@
       <c r="C32">
         <v>6767.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0098021724136172</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9934410158324676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -766,8 +1039,16 @@
       <c r="C33">
         <v>7073.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0746781395243055</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0837573971207752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -777,8 +1058,16 @@
       <c r="C34">
         <v>7348.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1427498705029429</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1647946981397359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -788,8 +1077,16 @@
       <c r="C35">
         <v>7740.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2461514572487178</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2802087822518002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -799,8 +1096,16 @@
       <c r="C36">
         <v>8232</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3952936397240903</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4249329770559278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -810,8 +1115,16 @@
       <c r="C37">
         <v>8769.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5564542470525451</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5831486599977085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -821,8 +1134,16 @@
       <c r="C38">
         <v>9277.2000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7086745579160638</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7328216976121542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2007</v>
       </c>
@@ -832,8 +1153,16 @@
       <c r="C39">
         <v>9746.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.837799102911831</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8710947223242593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2008</v>
       </c>
@@ -843,8 +1172,16 @@
       <c r="C40">
         <v>10050.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8957737885408141</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9604979242844727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -854,8 +1191,16 @@
       <c r="C41">
         <v>9891.2000000000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8385637335305427</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9136901193702132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -865,8 +1210,16 @@
       <c r="C42">
         <v>10260.299999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9504938925619477</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.022417374208811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -876,8 +1229,16 @@
       <c r="C43">
         <v>10698.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0584636571066928</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1516175204353334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -887,8 +1248,16 @@
       <c r="C44">
         <v>11047.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1867451478305471</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2542765513517558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -898,8 +1267,16 @@
       <c r="C45">
         <v>11363.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3022631889959069</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3473913854197077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -909,8 +1286,16 @@
       <c r="C46">
         <v>11847.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4409750255955198</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4900241049885219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -920,8 +1305,16 @@
       <c r="C47">
         <v>12263.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5694525754523769</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6125079645438976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -931,8 +1324,16 @@
       <c r="C48">
         <v>12693.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6653450974041371</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7391158597745386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2017</v>
       </c>
@@ -942,8 +1343,16 @@
       <c r="C49">
         <v>13233.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>3.818702551239074</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8982741794420948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -953,8 +1362,16 @@
       <c r="C50">
         <v>13905</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0257017838636271</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0960511474687404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -964,8 +1381,16 @@
       <c r="C51">
         <v>14392.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1919403227368601</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2397148759563716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -975,8 +1400,16 @@
       <c r="C52">
         <v>14116.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1291033706094025</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1582651713698837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -986,8 +1419,16 @@
       <c r="C53">
         <v>15902.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5711382918779364</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6844921235337216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -997,8 +1438,17 @@
       <c r="C54">
         <v>17357.2</v>
       </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9921948859151515</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1129794301937741</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project1.xlsx
+++ b/Project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\Spring2023\ECON400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA50DD-9804-434D-AE38-A214090A6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03A77D-6204-4066-A9F7-AE9B0B782928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24640" yWindow="1850" windowWidth="23220" windowHeight="17130" xr2:uid="{07C7A715-FA42-43D0-8BB4-0197F204551F}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>PCE</t>
   </si>
   <si>
-    <t>p_GDP</t>
+    <t>P_PCE</t>
   </si>
   <si>
-    <t>P_PCE</t>
+    <t>P_GDP</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
